--- a/just alala All tikka251024_allds .xlsx
+++ b/just alala All tikka251024_allds .xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>...1</t>
   </si>
@@ -41,7 +41,8 @@
     <t>z0.ci_u</t>
   </si>
   <si>
-    <t>Proportion.Mediated</t>
+    <t>Proportion 
+Mediated</t>
   </si>
   <si>
     <t>n1.p</t>
@@ -53,7 +54,8 @@
     <t>n1.ci_u</t>
   </si>
   <si>
-    <t>Total.Effect</t>
+    <t>Total 
+Effect</t>
   </si>
   <si>
     <t>tau.p</t>
@@ -65,36 +67,58 @@
     <t>tau.ci_u</t>
   </si>
   <si>
-    <t>1</t>
+    <t>ACME minus
+ADE</t>
+  </si>
+  <si>
+    <t>ADE_pval 
+minus ACME_pval</t>
+  </si>
+  <si>
+    <t>Overlap 
+ACME.CI_l-ADE.CI_u</t>
+  </si>
+  <si>
+    <t>ACME CI 
+fraction negative</t>
+  </si>
+  <si>
+    <t>ADE CI 
+fraction negative</t>
+  </si>
+  <si>
+    <t>ADE-ACME
+(fraction Cis)</t>
+  </si>
+  <si>
+    <t>Proportion of mediated with 
+the averages here and values starting from zero</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -122,9 +146,6 @@
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -149,100 +170,109 @@
     <t>31</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T PE</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T SM</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T TG_PUFA</t>
+  </si>
+  <si>
+    <t>PFHxS E2 LCA_L</t>
+  </si>
+  <si>
     <t>PFHpA T/Epi-T SM</t>
   </si>
   <si>
     <t>PFHpA T/Epi-T PE</t>
   </si>
   <si>
-    <t>PFHxS T/Epi-T PE</t>
+    <t>PFHxA DHEA PC</t>
+  </si>
+  <si>
+    <t>PFHxA 17a-OHP5 UDCA_L</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T LPC</t>
+  </si>
+  <si>
+    <t>PFHxA 17a-OHP5 PI</t>
+  </si>
+  <si>
+    <t>PFHxA E LCA_L</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T CDCA_L</t>
+  </si>
+  <si>
+    <t>PFHxA DHEA PI</t>
+  </si>
+  <si>
+    <t>PFHxA 17a-OHP5 TDHCA_L</t>
+  </si>
+  <si>
+    <t>PFHxA DHEA TCA_L</t>
   </si>
   <si>
     <t>PFOS T/Epi-T PC_O</t>
   </si>
   <si>
-    <t>PFHxS T/Epi-T SM</t>
+    <t>PFHxS A CA_L</t>
+  </si>
+  <si>
+    <t>PFHxS T/Epi-T MUFA</t>
+  </si>
+  <si>
+    <t>PFHxS A CDCA_L</t>
+  </si>
+  <si>
+    <t>PFHxA 17a-OHP5 PC</t>
+  </si>
+  <si>
+    <t>PFHxA DHEA GHCA_L</t>
+  </si>
+  <si>
+    <t>PFHpA A CA_L</t>
+  </si>
+  <si>
+    <t>PFHxS E2 GLCA_L</t>
+  </si>
+  <si>
+    <t>PFHxA DHEA CE</t>
   </si>
   <si>
     <t>PFHpA E2 LCA_L</t>
   </si>
   <si>
+    <t>PFHxA E GDHCA_L</t>
+  </si>
+  <si>
+    <t>PFHxS E2 DG</t>
+  </si>
+  <si>
+    <t>PFHxA DHEA UDCA_L</t>
+  </si>
+  <si>
+    <t>PFHxA 11b-OHA4 TG_PUFA</t>
+  </si>
+  <si>
     <t>PFHpA T/Epi-T LPC</t>
-  </si>
-  <si>
-    <t>PFHpA E2 GLCA_L</t>
-  </si>
-  <si>
-    <t>PFOS T/Epi-T PE</t>
-  </si>
-  <si>
-    <t>PFOS P5 TDHCA_L</t>
-  </si>
-  <si>
-    <t>PFOS T/Epi-T SM</t>
-  </si>
-  <si>
-    <t>PFHpA A CA_L</t>
-  </si>
-  <si>
-    <t>PFHpA T/Epi-T CDCA_L</t>
-  </si>
-  <si>
-    <t>PFHxS E2 LCA_L</t>
-  </si>
-  <si>
-    <t>PFHpA P5 GHDGA_L</t>
-  </si>
-  <si>
-    <t>PFHpA P4 TG_PUFA</t>
-  </si>
-  <si>
-    <t>PFHxS T/Epi-T TG_PUFA</t>
-  </si>
-  <si>
-    <t>PFHxS T/Epi-T LPC</t>
-  </si>
-  <si>
-    <t>PFHxS A CA_L</t>
-  </si>
-  <si>
-    <t>PFHpA A CDCA_L</t>
-  </si>
-  <si>
-    <t>PFOS P5 GHDGA_L</t>
-  </si>
-  <si>
-    <t>PFHxA 17a-OHP5 UDCA_L</t>
-  </si>
-  <si>
-    <t>PFNA P5 GHDGA_L</t>
-  </si>
-  <si>
-    <t>PFHxA DHEA PC</t>
-  </si>
-  <si>
-    <t>PFNA T/Epi-T PC_O</t>
-  </si>
-  <si>
-    <t>PFHpA P5 TDHCA_L</t>
-  </si>
-  <si>
-    <t>PFHxS T/Epi-T CDCA_L</t>
-  </si>
-  <si>
-    <t>PFHxS E2 GLCA_L</t>
-  </si>
-  <si>
-    <t>PFNA P5 TDHCA_L</t>
-  </si>
-  <si>
-    <t>PFHpA E2 DG</t>
   </si>
 </sst>
 </file>
@@ -346,1685 +376,2336 @@
       <c r="R1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13083875801708375</v>
+        <v>0.6804650086740736</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04772184022293884</v>
+        <v>0.15256177778139163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2535989934669045</v>
+        <v>1.4267977712094746</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.26625610409292544</v>
+        <v>-0.7647844704283174</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.46750999078235667</v>
+        <v>-2.137009789036444</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.052836712752212</v>
+        <v>0.6284124269648147</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.6985951736135649</v>
+        <v>-0.06914324797562724</v>
       </c>
       <c r="L2" t="n">
-        <v>0.28</v>
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.3137673481273704</v>
+        <v>-18.78231939684126</v>
       </c>
       <c r="N2" t="n">
-        <v>8.638149270014065</v>
+        <v>14.3801218125618</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1354173460758417</v>
+        <v>-0.08431946175424382</v>
       </c>
       <c r="P2" t="n">
-        <v>0.28</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.3316134725451618</v>
+        <v>-1.3347729676661177</v>
       </c>
       <c r="R2" t="n">
-        <v>0.052805624134699795</v>
+        <v>1.0429592148248021</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.445249479102391</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.47585064918342307</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.11972803983581878</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.7727607656694515</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8924888055052703</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3949228235794388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12951668415410844</v>
+        <v>0.6116447025652977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05481235707144139</v>
+        <v>0.14554813496340557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.21993159976402205</v>
+        <v>1.3706320626073594</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2727718127225726</v>
+        <v>-0.8471349200463296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4531855641898927</v>
+        <v>-1.9487598358082237</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.10496348338583439</v>
+        <v>0.3444800407865647</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.8696699674032085</v>
+        <v>-0.5991167093017993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.0482449384410915</v>
+        <v>-11.935863357471098</v>
       </c>
       <c r="N3" t="n">
-        <v>7.974044306804494</v>
+        <v>14.351935828960475</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.14325512856846417</v>
+        <v>-0.2354902174810319</v>
       </c>
       <c r="P3" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.3091339900503791</v>
+        <v>-1.31106339087221</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02081400618319377</v>
+        <v>0.9357915092643285</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4587796226116274</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.19893190582315912</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.11880666432651645</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8497845583872891</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9685912227138055</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3916519542167901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09614033086751436</v>
+        <v>0.5857349257376026</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.022798712319649424</v>
+        <v>0.015880807235389722</v>
       </c>
       <c r="F4" t="n">
-        <v>0.20531638613306258</v>
+        <v>1.2953783366611853</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.10864979750694044</v>
+        <v>-0.9001369216364455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3176355178982001</v>
+        <v>-2.243558534524655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.12113730659179903</v>
+        <v>0.7422751935012266</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4228397424001362</v>
+        <v>-0.37730333723778936</v>
       </c>
       <c r="L4" t="n">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.010497167251736</v>
+        <v>-8.290100393806318</v>
       </c>
       <c r="N4" t="n">
-        <v>20.802214231632995</v>
+        <v>6.279471589582214</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.012509466639426078</v>
+        <v>-0.31440199589884305</v>
       </c>
       <c r="P4" t="n">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1960299579157747</v>
+        <v>-1.8898916583617926</v>
       </c>
       <c r="R4" t="n">
-        <v>0.20079948031953734</v>
+        <v>1.3176059991511382</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4858718473740482</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7263943862658369</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.01241175295001672</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.7514010286192357</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.7638127815692525</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.39349611097341436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09606742359534291</v>
+        <v>0.5621464338717971</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02590251148576476</v>
+        <v>0.11308353229793347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17392480790609016</v>
+        <v>1.1013037068721765</v>
       </c>
       <c r="G5" t="n">
-        <v>0.026504628150790476</v>
+        <v>-1.120474020968224</v>
       </c>
       <c r="H5" t="n">
-        <v>0.78</v>
+        <v>0.14</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.13137028276986176</v>
+        <v>-2.7258965392692946</v>
       </c>
       <c r="J5" t="n">
-        <v>0.21017567370157614</v>
+        <v>0.22932381880603564</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6750326370086269</v>
+        <v>-0.5594403433384929</v>
       </c>
       <c r="L5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-5.381072585403455</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.427867523986412</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.5583275870964269</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.8263806612807731</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7978405240872464</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.6826204548400212</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.14</v>
       </c>
-      <c r="M5" t="n">
-        <v>-3.0889788058874066</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.644260092719769</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.12257205174613339</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.04275828545814582</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.29048138598763484</v>
+      <c r="U5" t="n">
+        <v>0.11624028650810217</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.11443151557460712</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9224004334636523</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.0368319490382594</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.4228622146661487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09153408886848928</v>
+        <v>0.5458149496501079</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03056562350410328</v>
+        <v>0.13797196848901994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17110097039101624</v>
+        <v>1.0091636290744237</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1125376138194208</v>
+        <v>-1.1763207377065972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.31438139792212627</v>
+        <v>-2.0948447982226197</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09880430716984227</v>
+        <v>-0.5006664416813488</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5080156835587155</v>
+        <v>-0.7751176046598065</v>
       </c>
       <c r="L6" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="M6" t="n">
-        <v>-18.552789711439488</v>
+        <v>-7.146148296592983</v>
       </c>
       <c r="N6" t="n">
-        <v>7.015470289477305</v>
+        <v>5.914703717681977</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02100352495093152</v>
+        <v>-0.6305057880564894</v>
       </c>
       <c r="P6" t="n">
-        <v>0.76</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.2416338456654462</v>
+        <v>-1.484897958443375</v>
       </c>
       <c r="R6" t="n">
-        <v>0.19330132020093851</v>
+        <v>0.099096303989729</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.722135687356705</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.6386384101703687</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.15837154409433699</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.3140592391227757</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.4724307832171126</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.4287917694108216</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08690212688822847</v>
+        <v>0.5385304005675332</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.030562415860777077</v>
+        <v>0.10818197614853564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17252460716283807</v>
+        <v>0.9638355915312782</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.057309730508599006</v>
+        <v>-1.0126335392734598</v>
       </c>
       <c r="H7" t="n">
-        <v>0.56</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2299705842441086</v>
+        <v>-1.9159372950619304</v>
       </c>
       <c r="J7" t="n">
-        <v>0.13030943307344903</v>
+        <v>-0.20667107476196056</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5582829112245633</v>
+        <v>-0.8555898308492519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
       <c r="M7" t="n">
-        <v>-27.22135195623186</v>
+        <v>-6.274495468602408</v>
       </c>
       <c r="N7" t="n">
-        <v>10.697059956216762</v>
+        <v>7.824750542407308</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02959239637962947</v>
+        <v>-0.47410313870592663</v>
       </c>
       <c r="P7" t="n">
-        <v>0.76</v>
+        <v>0.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.14045185294765927</v>
+        <v>-1.3423574100106377</v>
       </c>
       <c r="R7" t="n">
-        <v>0.22825909787264181</v>
+        <v>0.328046402136513</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5511639398409929</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3148530509104962</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.12643197457904123</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.1209121623697043</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.2473441369487455</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3996295909875951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08531472997709304</v>
+        <v>0.5170293786944326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007060285544420174</v>
+        <v>0.02217677311517398</v>
       </c>
       <c r="F8" t="n">
-        <v>0.17790775023141975</v>
+        <v>1.1101354789506144</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1797767850121495</v>
+        <v>-0.7408640580773528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3703286443186721</v>
+        <v>-2.2590090114760084</v>
       </c>
       <c r="J8" t="n">
-        <v>0.022802753156081768</v>
+        <v>1.0724315107021227</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.5363467281560544</v>
+        <v>-0.23790098243412355</v>
       </c>
       <c r="L8" t="n">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="M8" t="n">
-        <v>-7.86144863761926</v>
+        <v>-4.785467850585476</v>
       </c>
       <c r="N8" t="n">
-        <v>5.099091850905593</v>
+        <v>12.777692160044104</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.09446205503505646</v>
+        <v>-0.22383467938292018</v>
       </c>
       <c r="P8" t="n">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.25920552394675384</v>
+        <v>-1.7960671493643134</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09152433968792129</v>
+        <v>1.5090298542595693</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.2578934367717853</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.0502547375869487</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.02038383717711464</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6780877510606266</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.6984715882377412</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.35622740014289395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08191229799304534</v>
+        <v>0.5064440852934877</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="E9" t="n">
-        <v>0.022039005540369826</v>
+        <v>0.019266970513055502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1593477443753926</v>
+        <v>1.0888734616963855</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.17115344303541888</v>
+        <v>-1.2562662806814957</v>
       </c>
       <c r="H9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.7586659628407757</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4321717610719814</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.35322182637712846</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-3.197936312941962</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.0537378136054905</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.7498221953880081</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-2.144531605244484</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7263940911135407</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.7627103659749834</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.1</v>
       </c>
-      <c r="I9" t="n">
-        <v>-0.3556979831180067</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.023096595178667342</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.43713351820905244</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-5.160931577671043</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12.329165487446453</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-0.08924114504237353</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.3082119184226384</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.1012699881302842</v>
+      <c r="U9" t="n">
+        <v>0.4129047905589259</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.01801313910477489</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.864558527112425</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.8825716662171998</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.4339774380782626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08100154788638912</v>
+        <v>0.4845916664307693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02119002955158697</v>
+        <v>-0.05196002714548643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16540576488502</v>
+        <v>1.0718785321510809</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.17662774692488947</v>
+        <v>-1.2405821486907669</v>
       </c>
       <c r="H10" t="n">
         <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.34888473534780673</v>
+        <v>-2.5912673079649</v>
       </c>
       <c r="J10" t="n">
-        <v>7.084173092160966E-4</v>
+        <v>0.06806505965807949</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.5794310611488149</v>
+        <v>-0.3301184417967633</v>
       </c>
       <c r="L10" t="n">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="M10" t="n">
-        <v>-6.157158940253282</v>
+        <v>-6.320037465135728</v>
       </c>
       <c r="N10" t="n">
-        <v>4.796848768034794</v>
+        <v>12.405835411383599</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.09562619903850035</v>
+        <v>-0.7559904822599977</v>
       </c>
       <c r="P10" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.28487055454738536</v>
+        <v>-2.014190322596254</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08556410252136301</v>
+        <v>0.546963285879049</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.7251738151215361</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.12002508680356591</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.04623442283205626</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9744052076804078</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.9281707848483516</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4255211456322296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07819948526291809</v>
+        <v>0.4836576920525183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01739811074010098</v>
+        <v>0.041855168509850924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.14804682382209275</v>
+        <v>1.2176058678065247</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09016442664863684</v>
+        <v>-0.1012218716974696</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.25145968757567005</v>
+        <v>-1.4838154933209315</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07086499330979085</v>
+        <v>1.6107497986598283</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2826603207542385</v>
+        <v>0.45086798910778636</v>
       </c>
       <c r="L11" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.191938569453999</v>
+        <v>-12.4656471418555</v>
       </c>
       <c r="N11" t="n">
-        <v>13.248130789463623</v>
+        <v>8.901544734518712</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.011964941385718752</v>
+        <v>0.3824358203550487</v>
       </c>
       <c r="P11" t="n">
-        <v>0.88</v>
+        <v>0.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.17651835694532986</v>
+        <v>-0.9991659578586322</v>
       </c>
       <c r="R11" t="n">
-        <v>0.17609086112088385</v>
+        <v>1.908244402478788</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.584879563749988</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5688946301499773</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.035598676262653645</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.47949076956498</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5150894458276336</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2830213985931382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07770035456416546</v>
+        <v>0.48125685924870165</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="E12" t="n">
-        <v>0.017665827027871568</v>
+        <v>-0.03783553939969296</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1613220905650145</v>
+        <v>1.1978325252796933</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.15589627954684532</v>
+        <v>0.4003265225218945</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.36451630197940965</v>
+        <v>-1.210984651513901</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06038246424180173</v>
+        <v>2.007268364117099</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.46362522115815946</v>
+        <v>0.3603443580888126</v>
       </c>
       <c r="L12" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="M12" t="n">
-        <v>-11.84603302135882</v>
+        <v>-2.8564136961780062</v>
       </c>
       <c r="N12" t="n">
-        <v>8.560355504000347</v>
+        <v>4.671430300717591</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.07819592498267984</v>
+        <v>0.8815833817705961</v>
       </c>
       <c r="P12" t="n">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2822613085439912</v>
+        <v>-0.9007612300906505</v>
       </c>
       <c r="R12" t="n">
-        <v>0.11932690443461397</v>
+        <v>2.5299438069010587</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.08093033672680716</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.0451039035167917</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.030619500884738</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3762863409533586</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3456668400686206</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.24623170980102357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07734613695032282</v>
+        <v>0.46479648725847444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006461003617215361</v>
+        <v>-0.163007882241826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1636339003663997</v>
+        <v>1.0937645828564966</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.20699871669310219</v>
+        <v>-1.2579106937426665</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3925358570629759</v>
+        <v>-2.9021528617414005</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.03806635572218468</v>
+        <v>0.24796341140005357</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4217913296684663</v>
+        <v>-0.30617567207601815</v>
       </c>
       <c r="L13" t="n">
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.6472186316637774</v>
+        <v>-8.688146444904472</v>
       </c>
       <c r="N13" t="n">
-        <v>5.546043256211247</v>
+        <v>6.059639768660734</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.12965257974277938</v>
+        <v>-0.793114206484192</v>
       </c>
       <c r="P13" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.3191083075839997</v>
+        <v>-2.5898145759785507</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04405340465944965</v>
+        <v>0.6600572824681245</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.722707181001141</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.039999999999999994</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.41097129364187956</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.12970357544320738</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9212843622585486</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7915807868153413</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.4237285945948278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07722644030611842</v>
+        <v>0.46111778540620635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.012120362774342608</v>
+        <v>0.00814080814211144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16050926956929779</v>
+        <v>1.1350635388694492</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.19859319968377617</v>
+        <v>-0.1086073248336609</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4403177025009253</v>
+        <v>-1.375724837451753</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04122926294200008</v>
+        <v>1.780576264646423</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4608298779686971</v>
+        <v>0.1922395182281048</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3</v>
+        <v>0.82</v>
       </c>
       <c r="M14" t="n">
-        <v>-4.495189471404302</v>
+        <v>-9.464641220753638</v>
       </c>
       <c r="N14" t="n">
-        <v>2.927788169570687</v>
+        <v>6.858507346052699</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.12136675937765776</v>
+        <v>0.3525104605725455</v>
       </c>
       <c r="P14" t="n">
-        <v>0.28</v>
+        <v>0.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.32223033043313704</v>
+        <v>-1.0295351883560204</v>
       </c>
       <c r="R14" t="n">
-        <v>0.10939958168982133</v>
+        <v>2.1323703909727945</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5697251102398673</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7724354565043114</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.007223927533041422</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.43586615882028146</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.44309008635332287</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.27885375859924494</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07546745502799856</v>
+        <v>0.4577249603225651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="E15" t="n">
-        <v>0.014048895112081228</v>
+        <v>0.029773215610358582</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1457161120736106</v>
+        <v>1.0367768117308822</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.14396879931887382</v>
+        <v>-0.2178637541385245</v>
       </c>
       <c r="H15" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.30609654382711565</v>
+        <v>-1.6840837314590682</v>
       </c>
       <c r="J15" t="n">
-        <v>0.019183999794960375</v>
+        <v>1.8587481748606196</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.49321405501885296</v>
+        <v>0.1566547295656774</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="M15" t="n">
-        <v>-6.052635509454106</v>
+        <v>-16.479755653011924</v>
       </c>
       <c r="N15" t="n">
-        <v>6.456573138230409</v>
+        <v>10.942845760234896</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.06850134429087526</v>
+        <v>0.2398612061840406</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.2491805063687936</v>
+        <v>-1.1087772684863881</v>
       </c>
       <c r="R15" t="n">
-        <v>0.12619022305508037</v>
+        <v>2.2377021575349865</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6755887144610896</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.828974959250261</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.029566146263091557</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.4753496005427204</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.504915746805812</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.28743970142922803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07544775946004642</v>
+        <v>0.45626786086368104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.98018621985699E-5</v>
+        <v>-0.01762050950562539</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1663039526737265</v>
+        <v>1.143844335787887</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02892645368972929</v>
+        <v>-0.12400542413440922</v>
       </c>
       <c r="H16" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.23459620518584176</v>
+        <v>-1.5049547053101842</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1861369791399744</v>
+        <v>1.2726965326575803</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5572086679846397</v>
+        <v>0.41668213573047935</v>
       </c>
       <c r="L16" t="n">
         <v>0.66</v>
       </c>
       <c r="M16" t="n">
-        <v>-5.298174322566773</v>
+        <v>-4.516895090870677</v>
       </c>
       <c r="N16" t="n">
-        <v>17.400871280841933</v>
+        <v>10.359792886453544</v>
       </c>
       <c r="O16" t="n">
-        <v>0.046521305770317135</v>
+        <v>0.3322624367292718</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.16727193666974344</v>
+        <v>-1.1391427269912107</v>
       </c>
       <c r="R16" t="n">
-        <v>0.23824160139171663</v>
+        <v>1.7133963061448572</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5802732849980903</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.2903170421632058</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.015170936578086902</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.541808375630076</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.5266374390519891</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.27909104912115473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07481482481778229</v>
+        <v>0.44928050017240834</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.008668878840578702</v>
+        <v>0.09970521191605078</v>
       </c>
       <c r="F17" t="n">
-        <v>0.16968579120017857</v>
+        <v>0.9070959076702874</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03124144160207872</v>
+        <v>0.17229599386430602</v>
       </c>
       <c r="H17" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.24434851893538825</v>
+        <v>-0.5182651803459144</v>
       </c>
       <c r="J17" t="n">
-        <v>0.16869122898315186</v>
+        <v>1.0283032641371816</v>
       </c>
       <c r="K17" t="n">
-        <v>0.41654550513004973</v>
+        <v>0.7246402833231599</v>
       </c>
       <c r="L17" t="n">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="M17" t="n">
-        <v>-5.2976210287396395</v>
+        <v>-3.359961348342849</v>
       </c>
       <c r="N17" t="n">
-        <v>7.496744130332084</v>
+        <v>6.190616482541563</v>
       </c>
       <c r="O17" t="n">
-        <v>0.043573383215703566</v>
+        <v>0.6215764940367143</v>
       </c>
       <c r="P17" t="n">
-        <v>0.64</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.1580125596495206</v>
+        <v>-0.0565963306864533</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2533843943414473</v>
+        <v>1.5153666641093517</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.27698450630810234</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.9285980522211309</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.12349066250126849</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3351065270953025</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.458597189596571</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.2550229524470981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07250837566849327</v>
+        <v>0.4244684950285236</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.003427668119886658</v>
+        <v>0.029327531605340174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.14849109311406866</v>
+        <v>1.1620976409209594</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.11744932487582219</v>
+        <v>-1.9133372999994982</v>
       </c>
       <c r="H18" t="n">
-        <v>0.24</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2940642394714075</v>
+        <v>-3.3463426949273134</v>
       </c>
       <c r="J18" t="n">
-        <v>0.061618469048120066</v>
+        <v>-0.6521883130736631</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.4938099456144896</v>
+        <v>-0.24004838723515648</v>
       </c>
       <c r="L18" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="M18" t="n">
-        <v>-4.583397876734648</v>
+        <v>-1.0976555719874201</v>
       </c>
       <c r="N18" t="n">
-        <v>7.9293945310499705</v>
+        <v>0.02068308916171161</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.044940949207328905</v>
+        <v>-1.4888688049709746</v>
       </c>
       <c r="P18" t="n">
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.2157227209983532</v>
+        <v>-3.0003911783572264</v>
       </c>
       <c r="R18" t="n">
-        <v>0.10967188582794923</v>
+        <v>-0.24209318571850386</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.3378057950280215</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.6815158446790033</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.025890100174923276</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.2420753307480992</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.2679654309230224</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.5895452941315039</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07242264076421676</v>
+        <v>0.40923881685167496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006277962184395738</v>
+        <v>-0.07324909979302677</v>
       </c>
       <c r="F19" t="n">
-        <v>0.15993585230260737</v>
+        <v>1.035118193359513</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.17810879232599314</v>
+        <v>-0.28794513311685865</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3722624410777977</v>
+        <v>-1.7203597485752755</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01741052930098874</v>
+        <v>0.8872405872230213</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.36057712845203127</v>
+        <v>0.2309587193502704</v>
       </c>
       <c r="L19" t="n">
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="M19" t="n">
-        <v>-11.075412749674577</v>
+        <v>-6.205505270711022</v>
       </c>
       <c r="N19" t="n">
-        <v>5.833471526739577</v>
+        <v>11.82549199143914</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.10568615156177638</v>
+        <v>0.1212936837348163</v>
       </c>
       <c r="P19" t="n">
-        <v>0.34</v>
+        <v>0.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.29444743462610756</v>
+        <v>-1.2006403521586597</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06638556431128764</v>
+        <v>1.2807494813868388</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.6971839499685336</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9604896870160481</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.06608738840053971</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.6597482462927359</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5936608578921961</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.282859210796261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07063782999358101</v>
+        <v>0.407622400962986</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006197300224242745</v>
+        <v>0.039606493963987424</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1543402476858891</v>
+        <v>0.8845910050956267</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2811700692287627</v>
+        <v>-1.1525413290600894</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.45517050044420354</v>
+        <v>-2.4004755991149693</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.11423302967999208</v>
+        <v>0.19048966934721653</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.29011145832794133</v>
+        <v>-0.39617850106411756</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="M20" t="n">
-        <v>-2.386190347880918</v>
+        <v>-7.336848990543063</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.02200168636231299</v>
+        <v>1.9360535077729635</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.2105322392351817</v>
+        <v>-0.7449189280971035</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>0.22</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.39888989223603527</v>
+        <v>-1.8797562410527542</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0416836674742128</v>
+        <v>0.5062883456440779</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5601637300230755</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.1508831753832291</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.04687244966294674</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.9264792655980766</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.9733517152610234</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3896755641195296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06890487425775399</v>
+        <v>0.4027664119873139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008229758449462207</v>
+        <v>-0.09623905235975483</v>
       </c>
       <c r="F21" t="n">
-        <v>0.16601280927043927</v>
+        <v>1.0879508713582648</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.15739854240597204</v>
+        <v>-0.450582685717678</v>
       </c>
       <c r="H21" t="n">
-        <v>0.12</v>
+        <v>0.66</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.35262605408091957</v>
+        <v>-2.1196045283184883</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04553708823009183</v>
+        <v>1.1039850867092027</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.41345832226181756</v>
+        <v>0.056076003285908955</v>
       </c>
       <c r="L21" t="n">
-        <v>0.38</v>
+        <v>0.94</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.3719254302588535</v>
+        <v>-5.5020085262282965</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4975819867226754</v>
+        <v>13.027534128431732</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.08849366814821806</v>
+        <v>-0.04781627373036408</v>
       </c>
       <c r="P21" t="n">
-        <v>0.38</v>
+        <v>0.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.275444672202934</v>
+        <v>-1.8056173905619102</v>
       </c>
       <c r="R21" t="n">
-        <v>0.10829597907423175</v>
+        <v>1.4417599341538387</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8533490977049919</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.2002241390689576</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.08126994701795094</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.6575292706110423</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5762593235930913</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2967587365890777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06864058685206324</v>
+        <v>0.39359812685635776</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004473055386365964</v>
+        <v>-0.020135778510501467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1308371153146978</v>
+        <v>1.1062757560097447</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00511919286726572</v>
+        <v>-0.2704964156322015</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>0.72</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.20757813772640596</v>
+        <v>-1.7674557159245974</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2329896800325687</v>
+        <v>1.5340992383422767</v>
       </c>
       <c r="K22" t="n">
-        <v>0.40408279376028333</v>
+        <v>0.0920206721513256</v>
       </c>
       <c r="L22" t="n">
-        <v>0.62</v>
+        <v>0.9</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.2402994119505117</v>
+        <v>-4.258446053524519</v>
       </c>
       <c r="N22" t="n">
-        <v>4.215350437332525</v>
+        <v>7.463639666930911</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06352139398479753</v>
+        <v>0.12310171122415622</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.12704092091681757</v>
+        <v>-1.2582360372055366</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2769065340749476</v>
+        <v>1.8793769081561038</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.6640945424885593</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.554235016852778</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.01787604076611091</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.5353403897276849</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.517464348961574</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.27772617383733805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06719761705156624</v>
+        <v>0.37973349834532905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001631015058202844</v>
+        <v>0.11223554736560595</v>
       </c>
       <c r="F23" t="n">
-        <v>0.13502055350608827</v>
+        <v>0.8400872083512387</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.13235238479972186</v>
+        <v>-0.9814782675171381</v>
       </c>
       <c r="H23" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.30694762187287383</v>
+        <v>-1.7347054975619602</v>
       </c>
       <c r="J23" t="n">
-        <v>0.027499446567849167</v>
+        <v>0.10360531630419115</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3113776471712318</v>
+        <v>-0.47416249459287296</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6</v>
+        <v>0.14</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.038209473171789</v>
+        <v>-6.782015095698795</v>
       </c>
       <c r="N23" t="n">
-        <v>7.155201481761292</v>
+        <v>2.25484369128845</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.06515476774815564</v>
+        <v>-0.601744769171809</v>
       </c>
       <c r="P23" t="n">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.24887538997751846</v>
+        <v>-1.322906590052464</v>
       </c>
       <c r="R23" t="n">
-        <v>0.10578360077558369</v>
+        <v>0.42978790639400843</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.3612117658624672</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.008630231061414806</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1542011283090572</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.9436410233118855</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.0978421516209427</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.35512330532722236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06407299909563362</v>
+        <v>0.3746295646099573</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.010839413083502381</v>
+        <v>0.014016691647656596</v>
       </c>
       <c r="F24" t="n">
-        <v>0.14654253542446208</v>
+        <v>0.9472383392599415</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.016131079781266912</v>
+        <v>-1.0295252412335794</v>
       </c>
       <c r="H24" t="n">
-        <v>0.88</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.21935826865880326</v>
+        <v>-2.3516661638887326</v>
       </c>
       <c r="J24" t="n">
-        <v>0.17596968614407948</v>
+        <v>0.2173712931391376</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3657780263333722</v>
+        <v>-0.3087634104128772</v>
       </c>
       <c r="L24" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="M24" t="n">
-        <v>-4.135738899493712</v>
+        <v>-5.5845523111842414</v>
       </c>
       <c r="N24" t="n">
-        <v>4.575071998531419</v>
+        <v>9.143675415467058</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0479419193143667</v>
+        <v>-0.654895676623622</v>
       </c>
       <c r="P24" t="n">
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.1289570290791599</v>
+        <v>-1.9365767744590303</v>
       </c>
       <c r="R24" t="n">
-        <v>0.24021797052998756</v>
+        <v>0.5871580457002181</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4041548058435367</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.20335460149148102</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.01501968121241006</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.9153880405501695</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.9304077217625796</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3609371271973538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06405181884308947</v>
+        <v>0.37167407770876437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0120484298261842</v>
+        <v>-0.07309467200084988</v>
       </c>
       <c r="F25" t="n">
-        <v>0.14706531649190496</v>
+        <v>0.897986184271935</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08774479108814381</v>
+        <v>-0.3723225018477693</v>
       </c>
       <c r="H25" t="n">
-        <v>0.48</v>
+        <v>0.56</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.28887072627813415</v>
+        <v>-1.7898663530510168</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07406682956168606</v>
+        <v>1.2030370236767647</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.18650847038989332</v>
+        <v>0.07107901862584004</v>
       </c>
       <c r="L25" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="M25" t="n">
-        <v>-6.200823574152611</v>
+        <v>-6.227842794598683</v>
       </c>
       <c r="N25" t="n">
-        <v>7.174118752970437</v>
+        <v>13.88493487315628</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.023692972245054345</v>
+        <v>-6.48424139004965E-4</v>
       </c>
       <c r="P25" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.23069875784755237</v>
+        <v>-1.2695477455771371</v>
       </c>
       <c r="R25" t="n">
-        <v>0.14736687057211378</v>
+        <v>1.4964564173929653</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.7439965795565338</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4600000000000001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.2761316956776145</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0752714581166833</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.5980367983038343</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.5227653401871509</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.2818428873774281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06376041905609578</v>
+        <v>0.3711350183770871</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0027646555470489855</v>
+        <v>0.1326531802008058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.15151033706211114</v>
+        <v>0.8286226489535958</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08101178438668025</v>
+        <v>-0.27341763452351503</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2948858247632229</v>
+        <v>-0.9272331300866763</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09914596968654574</v>
+        <v>0.33688469994668163</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.22931856479517568</v>
+        <v>0.7125349194297368</v>
       </c>
       <c r="L26" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="M26" t="n">
-        <v>-12.24045756642377</v>
+        <v>-6.605977252404818</v>
       </c>
       <c r="N26" t="n">
-        <v>17.010579269735786</v>
+        <v>9.46311994187441</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.017251365330584467</v>
+        <v>0.09771738385357209</v>
       </c>
       <c r="P26" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.23343636934782205</v>
+        <v>-0.6220940796239292</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1703470137186899</v>
+        <v>0.6848438957183864</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.6445526529006022</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.20423151974587583</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.19060201080160388</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.7335021372669098</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.9241041480685137</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.27278811649612844</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06370711407821018</v>
+        <v>0.3638972118238032</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0058023186146891805</v>
+        <v>-0.14304050382793848</v>
       </c>
       <c r="F27" t="n">
-        <v>0.14822733516126152</v>
+        <v>0.9505687267474261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.010424705207168197</v>
+        <v>-0.514691210879276</v>
       </c>
       <c r="H27" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-1.8654991025928371</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.806571969873501</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.10379752010961744</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.94</v>
       </c>
-      <c r="I27" t="n">
-        <v>-0.183131023384515</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.22351403825098434</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.45648348151952606</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.44</v>
-      </c>
       <c r="M27" t="n">
-        <v>-2.6920151037344056</v>
+        <v>-10.058050936672744</v>
       </c>
       <c r="N27" t="n">
-        <v>5.232305696147144</v>
+        <v>24.731333219851965</v>
       </c>
       <c r="O27" t="n">
-        <v>0.07413181928537839</v>
+        <v>-0.1507939990554728</v>
       </c>
       <c r="P27" t="n">
-        <v>0.42</v>
+        <v>0.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.10749262211141765</v>
+        <v>-1.6999245915848358</v>
       </c>
       <c r="R27" t="n">
-        <v>0.28453281982888656</v>
+        <v>1.1375539105956909</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8785884227030792</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.9496124737014395</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.13079672320677346</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.6981472618057909</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.5673505385990174</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.2938662068412001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06359513260218226</v>
+        <v>0.3605747673972523</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E28" t="n">
-        <v>-5.126903820510688E-4</v>
+        <v>0.045730769680404945</v>
       </c>
       <c r="F28" t="n">
-        <v>0.21088593521262652</v>
+        <v>0.8394846207901514</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.16716892561501376</v>
+        <v>-0.273868186295073</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.66</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3475069167838993</v>
+        <v>-1.559610480491662</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0015615021715459565</v>
+        <v>1.0635811976736855</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.3160204176164556</v>
+        <v>0.16727105575450044</v>
       </c>
       <c r="L28" t="n">
-        <v>0.36</v>
+        <v>0.86</v>
       </c>
       <c r="M28" t="n">
-        <v>-11.786328089540792</v>
+        <v>-11.137026800515802</v>
       </c>
       <c r="N28" t="n">
-        <v>4.195412699926142</v>
+        <v>5.847075331207218</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.10357379301283151</v>
+        <v>0.0867065811021793</v>
       </c>
       <c r="P28" t="n">
-        <v>0.34</v>
+        <v>0.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.3228509682844645</v>
+        <v>-1.1418715693177046</v>
       </c>
       <c r="R28" t="n">
-        <v>0.13380447359163875</v>
+        <v>1.3925970145515458</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.6344429536923253</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.0178504279932805</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.05761328857361612</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5945469000505709</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.652160188624187</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.27035856547097903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06139812803871343</v>
+        <v>0.3598472270270697</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E29" t="n">
-        <v>0.007026038874787076</v>
+        <v>-0.07690600953443194</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1634504615488067</v>
+        <v>1.077957485948703</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.13457313051446806</v>
+        <v>-1.1628627364286916</v>
       </c>
       <c r="H29" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.33930935689162034</v>
+        <v>-2.8161811723234162</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05747776737146236</v>
+        <v>0.4274881377686417</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.33414227813873654</v>
+        <v>-0.232553531878054</v>
       </c>
       <c r="L29" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.926562709194419</v>
+        <v>-6.8602558328921575</v>
       </c>
       <c r="N29" t="n">
-        <v>9.31925801067146</v>
+        <v>1.5729785627984172</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.07317500247575465</v>
+        <v>-0.803015509401622</v>
       </c>
       <c r="P29" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.2732745896079543</v>
+        <v>-2.275868644672414</v>
       </c>
       <c r="R29" t="n">
-        <v>0.11799298158999554</v>
+        <v>0.7469312571428797</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.5227099634557613</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5043941473030736</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.06659316000135448</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.8682084710551122</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.8016153110537577</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.37835583284602775</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06035365291978814</v>
+        <v>0.3539781361393452</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004953567641457968</v>
+        <v>-0.005816725132092764</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1416484013910481</v>
+        <v>0.9127117186862658</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02443865041499729</v>
+        <v>-0.3999434792797512</v>
       </c>
       <c r="H30" t="n">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.21161166728620573</v>
+        <v>-2.018744102916254</v>
       </c>
       <c r="J30" t="n">
-        <v>0.20104328671713917</v>
+        <v>1.173502501542115</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2615332026356272</v>
+        <v>-0.029325695462576715</v>
       </c>
       <c r="L30" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="M30" t="n">
-        <v>-4.999965159583349</v>
+        <v>-13.357828136367075</v>
       </c>
       <c r="N30" t="n">
-        <v>3.217368141791734</v>
+        <v>3.361945267097422</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03591500250479085</v>
+        <v>-0.045965343140406026</v>
       </c>
       <c r="P30" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.17409578030663508</v>
+        <v>-1.6870189792507788</v>
       </c>
       <c r="R30" t="n">
-        <v>0.24318580746380158</v>
+        <v>1.3800530167016705</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.7539216154190964</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.1793192266742079</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.00633265651296808</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.632389772173875</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6260571156609069</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.28018932669349894</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06004503357605954</v>
+        <v>0.3526331987992257</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="E31" t="n">
-        <v>0.012929108462287963</v>
+        <v>0.054985674867789436</v>
       </c>
       <c r="F31" t="n">
-        <v>0.14214366946185195</v>
+        <v>0.7345737183473968</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007570090959830543</v>
+        <v>-0.7844255120388861</v>
       </c>
       <c r="H31" t="n">
-        <v>0.98</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.16452248211558412</v>
+        <v>-1.7233118915124046</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2616661039951173</v>
+        <v>0.004034892218016594</v>
       </c>
       <c r="K31" t="n">
-        <v>0.39198372430017064</v>
+        <v>-0.47106924277106393</v>
       </c>
       <c r="L31" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="M31" t="n">
-        <v>-4.1019237760091745</v>
+        <v>-8.779050386237138</v>
       </c>
       <c r="N31" t="n">
-        <v>4.27650615944461</v>
+        <v>7.700707572022489</v>
       </c>
       <c r="O31" t="n">
-        <v>0.06761512453589008</v>
+        <v>-0.4317923132396604</v>
       </c>
       <c r="P31" t="n">
-        <v>0.58</v>
+        <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.11149560718423801</v>
+        <v>-1.2942026039076115</v>
       </c>
       <c r="R31" t="n">
-        <v>0.29587376276095523</v>
+        <v>0.412583638341182</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.1370587108381118</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.019999999999999997</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.05095078264977284</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.08091030352190035</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.9976641099193163</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.0785744134412167</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.3213806135937305</v>
       </c>
     </row>
   </sheetData>
